--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -585,7 +585,7 @@
         <v>10.14</v>
       </c>
       <c r="H2">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I2">
         <v>4.9</v>
@@ -609,10 +609,10 @@
         <v>3.49</v>
       </c>
       <c r="P2">
-        <v>1.007857142857143</v>
+        <v>1.01</v>
       </c>
       <c r="Q2">
-        <v>-0.001666666666666664</v>
+        <v>-0</v>
       </c>
       <c r="R2">
         <v>1.29</v>
@@ -656,7 +656,7 @@
         <v>7.94</v>
       </c>
       <c r="H3">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I3">
         <v>3.68</v>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>-0.001666666666666664</v>
+        <v>-0</v>
       </c>
       <c r="R3">
         <v>1.01</v>
@@ -727,7 +727,7 @@
         <v>4.03</v>
       </c>
       <c r="H4">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I4">
         <v>2.38</v>
@@ -798,7 +798,7 @@
         <v>4.87</v>
       </c>
       <c r="H5">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I5">
         <v>2.38</v>
@@ -869,7 +869,7 @@
         <v>6.62</v>
       </c>
       <c r="H6">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I6">
         <v>3.05</v>
@@ -940,7 +940,7 @@
         <v>9.17</v>
       </c>
       <c r="H7">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I7">
         <v>3.06</v>
@@ -1434,7 +1434,7 @@
         <v>21.29</v>
       </c>
       <c r="G14">
-        <v>10.48357142857143</v>
+        <v>10.48</v>
       </c>
       <c r="H14">
         <v>0.05</v>
@@ -1464,7 +1464,7 @@
         <v>0.18</v>
       </c>
       <c r="Q14">
-        <v>-0.001666666666666664</v>
+        <v>-0</v>
       </c>
       <c r="R14">
         <v>0.17</v>
@@ -1508,7 +1508,7 @@
         <v>13.57</v>
       </c>
       <c r="H15">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="I15">
         <v>4.83</v>
